--- a/Sample-BOM_JLCSMT.xlsx
+++ b/Sample-BOM_JLCSMT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\YUSUF\Yeniay\Projects\CCM7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\YUSUF\Yeniay\Projects\CCM7 ASSEMBLY\CCM7A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="143">
   <si>
     <t>Comment</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -60,21 +57,9 @@
     <t>4.7uF</t>
   </si>
   <si>
-    <t>820pF</t>
-  </si>
-  <si>
-    <t>47nF</t>
-  </si>
-  <si>
-    <t>47pF</t>
-  </si>
-  <si>
     <t>22uF</t>
   </si>
   <si>
-    <t>MBR230LSFT1G</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -90,15 +75,6 @@
     <t>USB_B_Micro</t>
   </si>
   <si>
-    <t>10uH</t>
-  </si>
-  <si>
-    <t>15nH</t>
-  </si>
-  <si>
-    <t>3.3uH</t>
-  </si>
-  <si>
     <t>1.9nH</t>
   </si>
   <si>
@@ -120,27 +96,12 @@
     <t>10k</t>
   </si>
   <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>220K</t>
-  </si>
-  <si>
-    <t>30K</t>
-  </si>
-  <si>
     <t>50R</t>
   </si>
   <si>
     <t>SKRPABE010</t>
   </si>
   <si>
-    <t>STM32H743VITx</t>
-  </si>
-  <si>
     <t>24AA64T-I/OT</t>
   </si>
   <si>
@@ -150,48 +111,27 @@
     <t>ICP-20100</t>
   </si>
   <si>
-    <t>BMM150</t>
-  </si>
-  <si>
     <t>nRF52820-QDxx</t>
   </si>
   <si>
     <t>NRF21540-QDAA-R7</t>
   </si>
   <si>
-    <t>TPS562246DRLR</t>
-  </si>
-  <si>
     <t>ME6211C33M5</t>
   </si>
   <si>
     <t>BMP581</t>
   </si>
   <si>
-    <t>IIM-42652</t>
-  </si>
-  <si>
     <t>32MHz</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
-    <t>Capacitor_SMD:C_0201_0603Metric</t>
-  </si>
-  <si>
     <t>Capacitor_SMD:C_0805_2012Metric</t>
   </si>
   <si>
-    <t>MBR230LSFT1G:SODFL3619X98N</t>
-  </si>
-  <si>
-    <t>LED_SMD:LED_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>Fuse:Fuse_1206_3216Metric</t>
-  </si>
-  <si>
     <t>Inductor_SMD:L_0603_1608Metric</t>
   </si>
   <si>
@@ -201,12 +141,6 @@
     <t>Connector_USB:USB_Micro-B_Wuerth_629105150521</t>
   </si>
   <si>
-    <t>Inductor_SMD:L_Changjiang_FXL0650</t>
-  </si>
-  <si>
-    <t>Inductor_SMD:L_0201_0603Metric</t>
-  </si>
-  <si>
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
@@ -225,200 +159,302 @@
     <t>ICP-20100:PQFN50P200X200X85-10N</t>
   </si>
   <si>
-    <t>Package_CSP:WLCSP-12_1.56x1.56mm_P0.4mm</t>
-  </si>
-  <si>
     <t>Package_DFN_QFN:QFN-40-1EP_5x5mm_P0.4mm_EP3.6x3.6mm</t>
   </si>
   <si>
     <t>nRF21540:QFN65P400X400X95-17N</t>
   </si>
   <si>
-    <t>TPS562246DRLR:DRL0006A-MFG</t>
-  </si>
-  <si>
     <t>Package_TO_SOT_SMD:SOT-23-5</t>
   </si>
   <si>
     <t>BMP581:BMP581</t>
   </si>
   <si>
-    <t>Package_LGA:Bosch_LGA-14_3x2.5mm_P0.5mm</t>
-  </si>
-  <si>
     <t>Crystal:Crystal_SMD_3225-4Pin_3.2x2.5mm</t>
   </si>
   <si>
-    <t xml:space="preserve">C1, </t>
-  </si>
-  <si>
-    <t>C43, C57</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>C2-C12, C14, C16, C19, C22-C27, C33, C38, C41, C42, C48, C54, C55</t>
-  </si>
-  <si>
-    <t>C47</t>
-  </si>
-  <si>
-    <t>C13, C15, C36, C39, C46,</t>
-  </si>
-  <si>
-    <t>C30, C45, C46, C50</t>
-  </si>
-  <si>
-    <t>C17, C18</t>
-  </si>
-  <si>
-    <t>C20, C21, C32, C44</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>C34, C40</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
-    <t>C49</t>
-  </si>
-  <si>
-    <t>C56</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2-D6</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>J9</t>
-  </si>
-  <si>
-    <t>J11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L7</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2, R7-R9, R14, R17</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4, R5</t>
-  </si>
-  <si>
-    <t>R6, R15</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>U9, U10</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>Y1, Y2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Part Number </t>
   </si>
   <si>
-    <t>C51</t>
-  </si>
-  <si>
-    <t>C53</t>
-  </si>
-  <si>
-    <t>C52</t>
-  </si>
-  <si>
     <t>10nF</t>
+  </si>
+  <si>
+    <t>&gt;  C13, C15, C30, C36, C39, C45, C46, C50</t>
+  </si>
+  <si>
+    <t>&gt;  C17, C18</t>
+  </si>
+  <si>
+    <t>&gt;  C20, C21</t>
+  </si>
+  <si>
+    <t>&gt;  C26, C27, C49, C60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C28</t>
+  </si>
+  <si>
+    <t>&gt;  C29, C58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C31</t>
+  </si>
+  <si>
+    <t>&gt;  C32, C44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C59</t>
+  </si>
+  <si>
+    <t>&gt;  D2-D6</t>
+  </si>
+  <si>
+    <t>&gt;  D7, D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FB1</t>
+  </si>
+  <si>
+    <t>&gt;  H1-H6</t>
+  </si>
+  <si>
+    <t>&gt;  J1, J10, J12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J2</t>
+  </si>
+  <si>
+    <t>&gt;  J3-J8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J13</t>
+  </si>
+  <si>
+    <t>&gt;  JP1-JP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    L6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    L7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R1</t>
+  </si>
+  <si>
+    <t>&gt;  R2, R7-R9, R14, R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R3</t>
+  </si>
+  <si>
+    <t>&gt;  R4, R5</t>
+  </si>
+  <si>
+    <t>&gt;  R6, R11, R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U8</t>
+  </si>
+  <si>
+    <t>&gt;  U9, U10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U13</t>
+  </si>
+  <si>
+    <t>&gt;  Y1, Y2</t>
+  </si>
+  <si>
+    <t>12pF</t>
+  </si>
+  <si>
+    <t>33pF</t>
+  </si>
+  <si>
+    <t>1N5819WS</t>
+  </si>
+  <si>
+    <t>SS210</t>
+  </si>
+  <si>
+    <t>MountingHole</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>Batt_Pins</t>
+  </si>
+  <si>
+    <t>SWDIO</t>
+  </si>
+  <si>
+    <t>SRN6045TA-2R2Y</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>33.2k</t>
+  </si>
+  <si>
+    <t>220k</t>
+  </si>
+  <si>
+    <t>33k</t>
+  </si>
+  <si>
+    <t>STM32H743VGTx</t>
+  </si>
+  <si>
+    <t>TXB0104RUT</t>
+  </si>
+  <si>
+    <t>TPS562206</t>
+  </si>
+  <si>
+    <t>TPS79318-EP</t>
+  </si>
+  <si>
+    <t>ICM-20948</t>
+  </si>
+  <si>
+    <t>-- mixed values --</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-323</t>
+  </si>
+  <si>
+    <t>Fuse:Fuse_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>MountingHole:CCMountingHole</t>
+  </si>
+  <si>
+    <t>Connector_Hirose:Hirose_DF13-04P-1.25DSA_1x04_P1.25mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_IDC:IDC-Header_2x20_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>MountingHole:1x03_2.54vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinSocket_2.54mm:PinSocket_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Jumper:SolderJumper-2_P1.3mm_Open_TrianglePad1.0x1.5mm</t>
+  </si>
+  <si>
+    <t>6x6mmIND:IND_SRN6045TA-2R2Y</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN:Texas_R-PUQFN-N12</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-563</t>
+  </si>
+  <si>
+    <t>Sensor_Motion:InvenSense_QFN-24_3x3mm_P0.4mm</t>
+  </si>
+  <si>
+    <t>C2-C12, C14, C16, C19, C22-C25, C33, C38, C41-C43, C48, C51, C52, C54-C57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C1, C34, C35, C53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -452,6 +488,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -504,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,6 +567,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,6 +637,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <strike val="0"/>
@@ -611,13 +663,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -730,13 +775,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:D54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="A1:D54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:D55" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="A1:D55"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Comment" dataDxfId="4"/>
-    <tableColumn id="2" name="Designator" dataDxfId="3"/>
-    <tableColumn id="3" name="Footprint" dataDxfId="2"/>
-    <tableColumn id="4" name="Part Number " dataDxfId="1"/>
+    <tableColumn id="1" name="Comment" dataDxfId="3"/>
+    <tableColumn id="2" name="Designator" dataDxfId="2"/>
+    <tableColumn id="3" name="Footprint" dataDxfId="1"/>
+    <tableColumn id="4" name="Part Number " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1000,17 +1045,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26" style="2" customWidth="1"/>
     <col min="2" max="2" width="75.77734375" customWidth="1"/>
-    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
     <col min="4" max="4" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1025,18 +1070,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -1045,10 +1090,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -1057,612 +1102,624 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
+      <c r="A12" s="5">
+        <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="19.95" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="19.95" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="19.95" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="19.95" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="19.95" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="19.95" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="19.95" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="19.95" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="19.95" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="19.95" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="19.95" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="19.95" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="19.95" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="19.95" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="19.95" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" ht="19.95" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="19.95" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" ht="19.95" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="19.95" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="19.95" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="19.95" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" ht="19.95" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="19.95" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="19.95" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" ht="19.95" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="19.95" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" ht="19.95" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" ht="19.95" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" ht="19.95" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" ht="19.95" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="19.95" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="19.95" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="19.95" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="19.95" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" ht="19.95" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" ht="19.95" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" ht="19.95" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" ht="19.95" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" ht="19.95" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" ht="19.95" customHeight="1">
       <c r="A54" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A55" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="5"/>
+      <c r="D55" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Sample-BOM_JLCSMT.xlsx
+++ b/Sample-BOM_JLCSMT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="176">
   <si>
     <t>Comment</t>
   </si>
@@ -42,9 +42,6 @@
     <t>2.2uF</t>
   </si>
   <si>
-    <t>16pF</t>
-  </si>
-  <si>
     <t>2pF</t>
   </si>
   <si>
@@ -69,12 +66,6 @@
     <t>FerriteBead</t>
   </si>
   <si>
-    <t>SMA_CONNECTOR</t>
-  </si>
-  <si>
-    <t>USB_B_Micro</t>
-  </si>
-  <si>
     <t>1.9nH</t>
   </si>
   <si>
@@ -135,12 +126,6 @@
     <t>Inductor_SMD:L_0603_1608Metric</t>
   </si>
   <si>
-    <t>LPRS_SMA_CONNECTOR:LPRS_SMA_CONNECTOR</t>
-  </si>
-  <si>
-    <t>Connector_USB:USB_Micro-B_Wuerth_629105150521</t>
-  </si>
-  <si>
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
@@ -168,9 +153,6 @@
     <t>Package_TO_SOT_SMD:SOT-23-5</t>
   </si>
   <si>
-    <t>BMP581:BMP581</t>
-  </si>
-  <si>
     <t>Crystal:Crystal_SMD_3225-4Pin_3.2x2.5mm</t>
   </si>
   <si>
@@ -180,33 +162,12 @@
     <t>10nF</t>
   </si>
   <si>
-    <t>&gt;  C13, C15, C30, C36, C39, C45, C46, C50</t>
-  </si>
-  <si>
-    <t>&gt;  C17, C18</t>
-  </si>
-  <si>
-    <t>&gt;  C20, C21</t>
-  </si>
-  <si>
-    <t>&gt;  C26, C27, C49, C60</t>
-  </si>
-  <si>
     <t xml:space="preserve">    C28</t>
   </si>
   <si>
-    <t>&gt;  C29, C58</t>
-  </si>
-  <si>
     <t xml:space="preserve">    C31</t>
   </si>
   <si>
-    <t>&gt;  C32, C44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    C37</t>
-  </si>
-  <si>
     <t xml:space="preserve">    C40</t>
   </si>
   <si>
@@ -216,12 +177,6 @@
     <t xml:space="preserve">    C59</t>
   </si>
   <si>
-    <t>&gt;  D2-D6</t>
-  </si>
-  <si>
-    <t>&gt;  D7, D8</t>
-  </si>
-  <si>
     <t xml:space="preserve">    D9</t>
   </si>
   <si>
@@ -231,30 +186,6 @@
     <t xml:space="preserve">    FB1</t>
   </si>
   <si>
-    <t>&gt;  H1-H6</t>
-  </si>
-  <si>
-    <t>&gt;  J1, J10, J12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    J2</t>
-  </si>
-  <si>
-    <t>&gt;  J3-J8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    J9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    J11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    J13</t>
-  </si>
-  <si>
-    <t>&gt;  JP1-JP10</t>
-  </si>
-  <si>
     <t xml:space="preserve">    L1</t>
   </si>
   <si>
@@ -267,18 +198,9 @@
     <t xml:space="preserve">    R1</t>
   </si>
   <si>
-    <t>&gt;  R2, R7-R9, R14, R17</t>
-  </si>
-  <si>
     <t xml:space="preserve">    R3</t>
   </si>
   <si>
-    <t>&gt;  R4, R5</t>
-  </si>
-  <si>
-    <t>&gt;  R6, R11, R15</t>
-  </si>
-  <si>
     <t xml:space="preserve">    R10</t>
   </si>
   <si>
@@ -321,9 +243,6 @@
     <t xml:space="preserve">    U8</t>
   </si>
   <si>
-    <t>&gt;  U9, U10</t>
-  </si>
-  <si>
     <t xml:space="preserve">    U11</t>
   </si>
   <si>
@@ -333,12 +252,6 @@
     <t xml:space="preserve">    U13</t>
   </si>
   <si>
-    <t>&gt;  Y1, Y2</t>
-  </si>
-  <si>
-    <t>12pF</t>
-  </si>
-  <si>
     <t>33pF</t>
   </si>
   <si>
@@ -348,24 +261,6 @@
     <t>SS210</t>
   </si>
   <si>
-    <t>MountingHole</t>
-  </si>
-  <si>
-    <t>Conn_01x04_Pin</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>Batt_Pins</t>
-  </si>
-  <si>
-    <t>SWDIO</t>
-  </si>
-  <si>
     <t>SRN6045TA-2R2Y</t>
   </si>
   <si>
@@ -387,18 +282,12 @@
     <t>TXB0104RUT</t>
   </si>
   <si>
-    <t>TPS562206</t>
-  </si>
-  <si>
     <t>TPS79318-EP</t>
   </si>
   <si>
     <t>ICM-20948</t>
   </si>
   <si>
-    <t>-- mixed values --</t>
-  </si>
-  <si>
     <t>Capacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
@@ -408,24 +297,6 @@
     <t>Fuse:Fuse_0805_2012Metric</t>
   </si>
   <si>
-    <t>MountingHole:CCMountingHole</t>
-  </si>
-  <si>
-    <t>Connector_Hirose:Hirose_DF13-04P-1.25DSA_1x04_P1.25mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_IDC:IDC-Header_2x20_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>MountingHole:1x03_2.54vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinSocket_2.54mm:PinSocket_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Jumper:SolderJumper-2_P1.3mm_Open_TrianglePad1.0x1.5mm</t>
-  </si>
-  <si>
     <t>6x6mmIND:IND_SRN6045TA-2R2Y</t>
   </si>
   <si>
@@ -444,10 +315,238 @@
     <t>Sensor_Motion:InvenSense_QFN-24_3x3mm_P0.4mm</t>
   </si>
   <si>
-    <t>C2-C12, C14, C16, C19, C22-C25, C33, C38, C41-C43, C48, C51, C52, C54-C57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    C1, C34, C35, C53</t>
+    <t xml:space="preserve">    C34, C35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C1</t>
+  </si>
+  <si>
+    <t>C15525</t>
+  </si>
+  <si>
+    <t>C96446</t>
+  </si>
+  <si>
+    <t>C15850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C2, C3, C4, C5,C6, C7, C7, C9, C10, C11, C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C14, C16, C19, C22, C23, C24, C25, C33, C38, C41, C43, C48, C52, C54, C55, C56, C57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C30, C45, C46, C50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C13, C15, C36, C39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C17, C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C26, C27, C49, C60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C29, C58</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D7, D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   R2, R7, R8, R9, R14, R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R4, R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R6, R11, R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U9, U10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Y1, Y2</t>
+  </si>
+  <si>
+    <t>C1525</t>
+  </si>
+  <si>
+    <t>C1590</t>
+  </si>
+  <si>
+    <t>C15684</t>
+  </si>
+  <si>
+    <t>C12530</t>
+  </si>
+  <si>
+    <t>C28323</t>
+  </si>
+  <si>
+    <t>C726001</t>
+  </si>
+  <si>
+    <t>C5362283</t>
+  </si>
+  <si>
+    <t>LGA-10(2x2)</t>
+  </si>
+  <si>
+    <t>C82942</t>
+  </si>
+  <si>
+    <t>C5357827</t>
+  </si>
+  <si>
+    <t>C105266</t>
+  </si>
+  <si>
+    <t>C3015612</t>
+  </si>
+  <si>
+    <t>C5343527</t>
+  </si>
+  <si>
+    <t>C194919</t>
+  </si>
+  <si>
+    <t>C2061092</t>
+  </si>
+  <si>
+    <t>C114409</t>
+  </si>
+  <si>
+    <t>C115360</t>
+  </si>
+  <si>
+    <t>C4216</t>
+  </si>
+  <si>
+    <t>C853312</t>
+  </si>
+  <si>
+    <t>C22961</t>
+  </si>
+  <si>
+    <t>C23003</t>
+  </si>
+  <si>
+    <t>C25803</t>
+  </si>
+  <si>
+    <t>C25744</t>
+  </si>
+  <si>
+    <t>C25900</t>
+  </si>
+  <si>
+    <t>C4961</t>
+  </si>
+  <si>
+    <t>C25867</t>
+  </si>
+  <si>
+    <t>C19898</t>
+  </si>
+  <si>
+    <t>C317664</t>
+  </si>
+  <si>
+    <t>C1332316</t>
+  </si>
+  <si>
+    <t>C1002</t>
+  </si>
+  <si>
+    <t>C914092</t>
+  </si>
+  <si>
+    <t>C14996</t>
+  </si>
+  <si>
+    <t>C191023</t>
+  </si>
+  <si>
+    <t>C60133</t>
+  </si>
+  <si>
+    <t>C2286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   D4</t>
+  </si>
+  <si>
+    <t>C107005</t>
+  </si>
+  <si>
+    <t>C1705</t>
+  </si>
+  <si>
+    <t>C526991</t>
+  </si>
+  <si>
+    <t>C1550</t>
+  </si>
+  <si>
+    <t>C281756</t>
+  </si>
+  <si>
+    <t>C45783</t>
+  </si>
+  <si>
+    <t>TPS566242DRL</t>
+  </si>
+  <si>
+    <t>C5219277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D3</t>
+  </si>
+  <si>
+    <t>C426985</t>
+  </si>
+  <si>
+    <t>8pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C20, C21, C32, C44</t>
+  </si>
+  <si>
+    <t>C7102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D6</t>
+  </si>
+  <si>
+    <t>C2297</t>
+  </si>
+  <si>
+    <t>C2296</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>C2290</t>
+  </si>
+  <si>
+    <t>C84256</t>
   </si>
 </sst>
 </file>
@@ -546,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,6 +668,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,13 +877,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:D55" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="A1:D55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:D54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="A1:D54"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Comment" dataDxfId="3"/>
-    <tableColumn id="2" name="Designator" dataDxfId="2"/>
-    <tableColumn id="3" name="Footprint" dataDxfId="1"/>
-    <tableColumn id="4" name="Part Number " dataDxfId="0"/>
+    <tableColumn id="2" name="Designator" dataDxfId="0"/>
+    <tableColumn id="3" name="Footprint" dataDxfId="2"/>
+    <tableColumn id="4" name="Part Number " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1045,16 +1147,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26" style="2" customWidth="1"/>
-    <col min="2" max="2" width="75.77734375" customWidth="1"/>
+    <col min="2" max="2" width="87.21875" customWidth="1"/>
     <col min="3" max="3" width="69.6640625" customWidth="1"/>
     <col min="4" max="4" width="27.44140625" customWidth="1"/>
   </cols>
@@ -1070,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
@@ -1078,648 +1180,742 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A12" s="5">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="19.95" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="19.95" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>69</v>
+      <c r="A20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>70</v>
+      <c r="A21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="5"/>
+      <c r="A22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="5"/>
+      <c r="A23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="19.95" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="19.95" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="19.95" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="19.95" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="19.95" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="19.95" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="19.95" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="19.95" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="19.95" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="19.95" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="19.95" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="19.95" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="19.95" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="19.95" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="19.95" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="19.95" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="19.95" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="19.95" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="19.95" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="19.95" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="19.95" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="19.95" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="19.95" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="19.95" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="19.95" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="19.95" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="19.95" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="19.95" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="19.95" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="19.95" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A54" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Sample-BOM_JLCSMT.xlsx
+++ b/Sample-BOM_JLCSMT.xlsx
@@ -881,9 +881,9 @@
   <autoFilter ref="A1:D54"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Comment" dataDxfId="3"/>
-    <tableColumn id="2" name="Designator" dataDxfId="0"/>
-    <tableColumn id="3" name="Footprint" dataDxfId="2"/>
-    <tableColumn id="4" name="Part Number " dataDxfId="1"/>
+    <tableColumn id="2" name="Designator" dataDxfId="2"/>
+    <tableColumn id="3" name="Footprint" dataDxfId="1"/>
+    <tableColumn id="4" name="Part Number " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1"/>

--- a/Sample-BOM_JLCSMT.xlsx
+++ b/Sample-BOM_JLCSMT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="176">
   <si>
     <t>Comment</t>
   </si>
@@ -333,15 +333,9 @@
     <t>C15850</t>
   </si>
   <si>
-    <t xml:space="preserve">    C2, C3, C4, C5,C6, C7, C7, C9, C10, C11, C12</t>
-  </si>
-  <si>
     <t xml:space="preserve">    C51</t>
   </si>
   <si>
-    <t xml:space="preserve">    C14, C16, C19, C22, C23, C24, C25, C33, C38, C41, C43, C48, C52, C54, C55, C56, C57</t>
-  </si>
-  <si>
     <t xml:space="preserve">    C30, C45, C46, C50</t>
   </si>
   <si>
@@ -423,9 +417,6 @@
     <t>C2061092</t>
   </si>
   <si>
-    <t>C114409</t>
-  </si>
-  <si>
     <t>C115360</t>
   </si>
   <si>
@@ -547,6 +538,15 @@
   </si>
   <si>
     <t>C84256</t>
+  </si>
+  <si>
+    <t>C730183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C2, C3, C4, C5,C6, C7,C8, C9, C10, C11, C12,C14, C16, C19, C22, C23, C24, C25, C33, C38, C41,C42, C43, C48, C52, C54, C55, C56, C57</t>
+  </si>
+  <si>
+    <t>C1864375</t>
   </si>
 </sst>
 </file>
@@ -877,8 +877,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:D54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="A1:D54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:D53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="A1:D53"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Comment" dataDxfId="3"/>
     <tableColumn id="2" name="Designator" dataDxfId="2"/>
@@ -1147,16 +1147,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.21875" customWidth="1"/>
+    <col min="2" max="2" width="162.109375" customWidth="1"/>
     <col min="3" max="3" width="69.6640625" customWidth="1"/>
     <col min="4" max="4" width="27.44140625" customWidth="1"/>
   </cols>
@@ -1222,13 +1222,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
@@ -1236,195 +1236,195 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.95" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.95" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.95" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>157</v>
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.95" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>163</v>
+      <c r="B19" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>175</v>
+        <v>110</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.95" customHeight="1">
@@ -1432,13 +1432,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.95" customHeight="1">
@@ -1446,13 +1446,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>112</v>
+        <v>166</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.95" customHeight="1">
@@ -1460,461 +1460,447 @@
         <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="23" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>172</v>
+      <c r="A23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.95" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.95" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.95" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.95" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.95" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.95" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.95" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.95" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.95" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.95" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.95" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.95" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.95" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19.95" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.95" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.95" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.95" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.95" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.95" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="19.95" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.95" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="19.95" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.95" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="19.95" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="19.95" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19.95" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.95" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.95" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="19.95" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A54" s="7" t="s">
+      <c r="A53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="7" t="s">
+      <c r="B53" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>165</v>
+      <c r="D53" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Sample-BOM_JLCSMT.xlsx
+++ b/Sample-BOM_JLCSMT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="175">
   <si>
     <t>Comment</t>
   </si>
@@ -72,9 +72,6 @@
     <t>3.0nH</t>
   </si>
   <si>
-    <t>4k7</t>
-  </si>
-  <si>
     <t>1.5k</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t xml:space="preserve">    C59</t>
   </si>
   <si>
-    <t xml:space="preserve">    D9</t>
-  </si>
-  <si>
     <t xml:space="preserve">    F1</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t xml:space="preserve">    L7</t>
   </si>
   <si>
-    <t xml:space="preserve">    R1</t>
-  </si>
-  <si>
     <t xml:space="preserve">    R3</t>
   </si>
   <si>
@@ -258,9 +249,6 @@
     <t>1N5819WS</t>
   </si>
   <si>
-    <t>SS210</t>
-  </si>
-  <si>
     <t>SRN6045TA-2R2Y</t>
   </si>
   <si>
@@ -300,9 +288,6 @@
     <t>6x6mmIND:IND_SRN6045TA-2R2Y</t>
   </si>
   <si>
-    <t>Inductor_SMD:L_0402_1005Metric</t>
-  </si>
-  <si>
     <t>Resistor_SMD:R_0402_1005Metric</t>
   </si>
   <si>
@@ -360,9 +345,6 @@
     <t xml:space="preserve">   R2, R7, R8, R9, R14, R17</t>
   </si>
   <si>
-    <t xml:space="preserve">    R4, R5</t>
-  </si>
-  <si>
     <t xml:space="preserve">    R6, R11, R15</t>
   </si>
   <si>
@@ -447,12 +429,6 @@
     <t>C25867</t>
   </si>
   <si>
-    <t>C19898</t>
-  </si>
-  <si>
-    <t>C317664</t>
-  </si>
-  <si>
     <t>C1332316</t>
   </si>
   <si>
@@ -462,9 +438,6 @@
     <t>C914092</t>
   </si>
   <si>
-    <t>C14996</t>
-  </si>
-  <si>
     <t>C191023</t>
   </si>
   <si>
@@ -486,12 +459,6 @@
     <t>C526991</t>
   </si>
   <si>
-    <t>C1550</t>
-  </si>
-  <si>
-    <t>C281756</t>
-  </si>
-  <si>
     <t>C45783</t>
   </si>
   <si>
@@ -547,6 +514,36 @@
   </si>
   <si>
     <t>C1864375</t>
+  </si>
+  <si>
+    <t>C88875</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0201_0603Metric</t>
+  </si>
+  <si>
+    <t>C88903</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0201_0603Metric</t>
+  </si>
+  <si>
+    <t>C206445</t>
+  </si>
+  <si>
+    <t>C86111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R1,R4, R5</t>
+  </si>
+  <si>
+    <t>B5819WS</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>C64886</t>
   </si>
 </sst>
 </file>
@@ -877,8 +874,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:D53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="A1:D53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:D52" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="A1:D52"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Comment" dataDxfId="3"/>
     <tableColumn id="2" name="Designator" dataDxfId="2"/>
@@ -1147,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1"/>
@@ -1172,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
@@ -1180,13 +1177,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
@@ -1194,13 +1191,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
@@ -1208,13 +1205,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
@@ -1222,13 +1219,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
@@ -1236,13 +1233,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
@@ -1250,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
@@ -1264,13 +1261,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
@@ -1278,27 +1275,27 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
@@ -1306,13 +1303,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.95" customHeight="1">
@@ -1320,13 +1317,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.95" customHeight="1">
@@ -1334,13 +1331,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.95" customHeight="1">
@@ -1348,13 +1345,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.95" customHeight="1">
@@ -1362,41 +1359,41 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.95" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1">
@@ -1404,13 +1401,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.95" customHeight="1">
@@ -1418,13 +1415,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.95" customHeight="1">
@@ -1432,13 +1429,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.95" customHeight="1">
@@ -1446,13 +1443,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.95" customHeight="1">
@@ -1460,41 +1457,41 @@
         <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.95" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>147</v>
+      <c r="A24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.95" customHeight="1">
@@ -1502,13 +1499,13 @@
         <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.95" customHeight="1">
@@ -1516,27 +1513,27 @@
         <v>14</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.95" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.95" customHeight="1">
@@ -1544,13 +1541,13 @@
         <v>15</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.95" customHeight="1">
@@ -1558,13 +1555,13 @@
         <v>16</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.95" customHeight="1">
@@ -1572,13 +1569,13 @@
         <v>17</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.95" customHeight="1">
@@ -1586,13 +1583,13 @@
         <v>18</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.95" customHeight="1">
@@ -1600,13 +1597,13 @@
         <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.95" customHeight="1">
@@ -1614,125 +1611,125 @@
         <v>20</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.95" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.95" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.95" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19.95" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.95" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.95" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.95" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.95" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.95" customHeight="1">
@@ -1740,13 +1737,13 @@
         <v>24</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="19.95" customHeight="1">
@@ -1754,41 +1751,41 @@
         <v>25</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.95" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="19.95" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.95" customHeight="1">
@@ -1796,41 +1793,41 @@
         <v>27</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="19.95" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="19.95" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19.95" customHeight="1">
@@ -1838,69 +1835,55 @@
         <v>29</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.95" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.95" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A52" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A52" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>162</v>
+      <c r="D52" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
